--- a/ユニットの挙動テンプレ/ユニット配置データ.xlsx
+++ b/ユニットの挙動テンプレ/ユニット配置データ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -73,60 +73,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出現フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のモード</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:出現してない</t>
-    <rPh sb="2" eb="4">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:あり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:出現してる</t>
-    <rPh sb="2" eb="4">
-      <t>シュツゲン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J8"/>
+  <dimension ref="C4:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -487,12 +433,9 @@
     <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -508,17 +451,8 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -534,17 +468,8 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C6">
         <v>0</v>
       </c>
@@ -559,31 +484,6 @@
       </c>
       <c r="G6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
